--- a/files/03.IBGE/Censo 2022 - Pirâmide etária - Uberaba (MG).xlsx
+++ b/files/03.IBGE/Censo 2022 - Pirâmide etária - Uberaba (MG).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\eleicoes\03.IBGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\01.github\mapeamento_uberaba\files\03.IBGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F4414A-902B-46BD-ACB9-5BC2CEE096A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C90E715-8332-4027-958F-E21D7E5B6857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,35 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Grupo de idade</t>
   </si>
   <si>
-    <t>População feminina(pessoas)</t>
-  </si>
-  <si>
-    <t>População masculina(pessoas)</t>
-  </si>
-  <si>
-    <t>Município</t>
-  </si>
-  <si>
-    <t>Sigla UF</t>
-  </si>
-  <si>
-    <t>Código do Município</t>
-  </si>
-  <si>
     <t>100 anos ou mais</t>
   </si>
   <si>
-    <t xml:space="preserve">Uberaba </t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
     <t>95 a 99 anos</t>
   </si>
   <si>
@@ -123,6 +102,12 @@
   </si>
   <si>
     <t>População total</t>
+  </si>
+  <si>
+    <t>População masculina</t>
+  </si>
+  <si>
+    <t>População feminina</t>
   </si>
 </sst>
 </file>
@@ -522,290 +507,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>37</v>
+        <v>9405</v>
       </c>
       <c r="C2" s="2">
-        <v>12</v>
+        <v>9878</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:C2)</f>
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>227</v>
+        <v>10226</v>
       </c>
       <c r="C3" s="2">
-        <v>88</v>
+        <v>10839</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D22" si="0">SUM(B3:C3)</f>
-        <v>315</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B3:C3)</f>
+        <v>21065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>741</v>
+        <v>10261</v>
       </c>
       <c r="C4" s="2">
-        <v>335</v>
+        <v>10569</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>1076</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B4:C4)</f>
+        <v>20830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10776</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10937</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(B5:C5)</f>
+        <v>21713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12729</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12771</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM(B6:C6)</f>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13338</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13123</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(B7:C7)</f>
+        <v>26461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13633</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13144</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(B8:C8)</f>
+        <v>26777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>13923</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13337</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(B9:C9)</f>
+        <v>27260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>14070</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13233</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(B10:C10)</f>
+        <v>27303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11653</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10747</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(B11:C11)</f>
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1624</v>
-      </c>
-      <c r="C5" s="2">
-        <v>899</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>2523</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2791</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1674</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>4465</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4062</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2856</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>6918</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6079</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4459</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>10538</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7936</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6326</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>14262</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9923</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8343</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>18266</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10783</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9187</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>19970</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>11084</v>
@@ -814,269 +697,164 @@
         <v>9778</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:C12)</f>
         <v>20862</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10783</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9187</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(B13:C13)</f>
+        <v>19970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9923</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8343</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(B14:C14)</f>
+        <v>18266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7936</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6326</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(B15:C15)</f>
+        <v>14262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2">
-        <v>11653</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10747</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>22400</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <v>14070</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13233</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>27303</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2">
-        <v>13923</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13337</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>27260</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B16" s="2">
-        <v>13633</v>
+        <v>6079</v>
       </c>
       <c r="C16" s="2">
-        <v>13144</v>
+        <v>4459</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>26777</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B16:C16)</f>
+        <v>10538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>13338</v>
+        <v>4062</v>
       </c>
       <c r="C17" s="2">
-        <v>13123</v>
+        <v>2856</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>26461</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B17:C17)</f>
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>12729</v>
+        <v>2791</v>
       </c>
       <c r="C18" s="2">
-        <v>12771</v>
+        <v>1674</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>25500</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B18:C18)</f>
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>10776</v>
+        <v>1624</v>
       </c>
       <c r="C19" s="2">
-        <v>10937</v>
+        <v>899</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>21713</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B19:C19)</f>
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2">
-        <v>10261</v>
+        <v>741</v>
       </c>
       <c r="C20" s="2">
-        <v>10569</v>
+        <v>335</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>20830</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B20:C20)</f>
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
-        <v>10226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2">
-        <v>10839</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>21065</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B21:C21)</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>9405</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2">
-        <v>9878</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>19283</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="2">
-        <f>SUM(D2:D22)</f>
-        <v>337836</v>
+        <f>SUM(B22:C22)</f>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition ref="A2:A22"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="E1:G22 A1:C22" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/files/03.IBGE/Censo 2022 - Pirâmide etária - Uberaba (MG).xlsx
+++ b/files/03.IBGE/Censo 2022 - Pirâmide etária - Uberaba (MG).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\01.github\mapeamento_uberaba\files\03.IBGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C90E715-8332-4027-958F-E21D7E5B6857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F23F66-3180-43CB-B4D3-B3065CA673AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19860" yWindow="0" windowWidth="17280" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,8 +114,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -164,10 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -522,7 +532,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,228 +546,229 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>9405</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>9878</v>
       </c>
-      <c r="D2" s="2">
-        <f>SUM(B2:C2)</f>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D22" si="0">SUM(B2:C2)</f>
         <v>19283</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>10226</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>10839</v>
       </c>
-      <c r="D3" s="2">
-        <f>SUM(B3:C3)</f>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
         <v>21065</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10261</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>10569</v>
       </c>
-      <c r="D4" s="2">
-        <f>SUM(B4:C4)</f>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
         <v>20830</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>10776</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>10937</v>
       </c>
-      <c r="D5" s="2">
-        <f>SUM(B5:C5)</f>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
         <v>21713</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>12729</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>12771</v>
       </c>
-      <c r="D6" s="2">
-        <f>SUM(B6:C6)</f>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
         <v>25500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>13338</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>13123</v>
       </c>
-      <c r="D7" s="2">
-        <f>SUM(B7:C7)</f>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
         <v>26461</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>13633</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>13144</v>
       </c>
-      <c r="D8" s="2">
-        <f>SUM(B8:C8)</f>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
         <v>26777</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>13923</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>13337</v>
       </c>
-      <c r="D9" s="2">
-        <f>SUM(B9:C9)</f>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
         <v>27260</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>14070</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>13233</v>
       </c>
-      <c r="D10" s="2">
-        <f>SUM(B10:C10)</f>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
         <v>27303</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>11653</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>10747</v>
       </c>
-      <c r="D11" s="2">
-        <f>SUM(B11:C11)</f>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
         <v>22400</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>11084</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>9778</v>
       </c>
-      <c r="D12" s="2">
-        <f>SUM(B12:C12)</f>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
         <v>20862</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>10783</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>9187</v>
       </c>
-      <c r="D13" s="2">
-        <f>SUM(B13:C13)</f>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
         <v>19970</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>9923</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>8343</v>
       </c>
-      <c r="D14" s="2">
-        <f>SUM(B14:C14)</f>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
         <v>18266</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>7936</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>6326</v>
       </c>
-      <c r="D15" s="2">
-        <f>SUM(B15:C15)</f>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
         <v>14262</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>6079</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>4459</v>
       </c>
-      <c r="D16" s="2">
-        <f>SUM(B16:C16)</f>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
         <v>10538</v>
       </c>
     </row>
@@ -765,14 +776,14 @@
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>4062</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>2856</v>
       </c>
-      <c r="D17" s="2">
-        <f>SUM(B17:C17)</f>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
         <v>6918</v>
       </c>
     </row>
@@ -780,14 +791,14 @@
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>2791</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>1674</v>
       </c>
-      <c r="D18" s="2">
-        <f>SUM(B18:C18)</f>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
         <v>4465</v>
       </c>
     </row>
@@ -795,14 +806,14 @@
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>1624</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>899</v>
       </c>
-      <c r="D19" s="2">
-        <f>SUM(B19:C19)</f>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
         <v>2523</v>
       </c>
     </row>
@@ -810,14 +821,14 @@
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>741</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>335</v>
       </c>
-      <c r="D20" s="2">
-        <f>SUM(B20:C20)</f>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
         <v>1076</v>
       </c>
     </row>
@@ -825,14 +836,14 @@
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>227</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>88</v>
       </c>
-      <c r="D21" s="2">
-        <f>SUM(B21:C21)</f>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
     </row>
@@ -840,14 +851,14 @@
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>37</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>12</v>
       </c>
-      <c r="D22" s="2">
-        <f>SUM(B22:C22)</f>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
